--- a/اكسل ساختمان آرايه1..xlsx
+++ b/اكسل ساختمان آرايه1..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamid\Desktop\arrayAllay\arrayalley\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41936,7 +41936,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -42437,7 +42437,9 @@
         <f>'شارژ مهر 1404'!D13</f>
         <v>300000</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="32">
+        <v>189000</v>
+      </c>
       <c r="F13" s="32">
         <f t="shared" si="0"/>
         <v>20000</v>
@@ -42452,11 +42454,11 @@
       </c>
       <c r="I13" s="32">
         <f t="shared" si="1"/>
-        <v>189000.37789661321</v>
+        <v>0.37789661320857704</v>
       </c>
       <c r="J13" s="41">
         <f t="shared" si="2"/>
-        <v>189000.37789661321</v>
+        <v>0.37789661320857704</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="23"/>
@@ -42813,7 +42815,7 @@
       </c>
       <c r="E22" s="29">
         <f>SUM(E4:E21)</f>
-        <v>1039600</v>
+        <v>1228600</v>
       </c>
       <c r="F22" s="62">
         <f>SUM(F4:F21)</f>
@@ -42826,11 +42828,11 @@
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>7059400.4884135481</v>
+        <v>6870400.4884135481</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>7133400.7326203212</v>
+        <v>6944400.7326203212</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -43384,7 +43386,7 @@
       </c>
       <c r="C12" s="11">
         <f>'شارژ آبان 1404'!J13</f>
-        <v>189000.37789661321</v>
+        <v>0.37789661320857704</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44153,7 +44155,7 @@
       </c>
       <c r="G13" s="33">
         <f>IF('شارژ آبان 1404'!I13&gt;0,'شارژ آبان 1404'!I13,0)</f>
-        <v>189000.37789661321</v>
+        <v>0.37789661320857704</v>
       </c>
       <c r="H13" s="31">
         <f>IF('شارژ آبان 1404'!I13&lt;0,-'شارژ آبان 1404'!I13,0)</f>
@@ -44161,11 +44163,11 @@
       </c>
       <c r="I13" s="32">
         <f t="shared" si="1"/>
-        <v>489000.37789661321</v>
+        <v>300000.37789661321</v>
       </c>
       <c r="J13" s="41">
         <f t="shared" si="2"/>
-        <v>489000.37789661321</v>
+        <v>300000.37789661321</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="23"/>
@@ -44535,11 +44537,11 @@
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>11559400.488413548</v>
+        <v>11370400.488413548</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>11633400.732620319</v>
+        <v>11444400.732620321</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -45093,7 +45095,7 @@
       </c>
       <c r="C12" s="11">
         <f>'شارژ آذر 1404'!J13</f>
-        <v>489000.37789661321</v>
+        <v>300000.37789661321</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -45863,7 +45865,7 @@
       </c>
       <c r="G13" s="33">
         <f>IF('شارژ آذر 1404'!I13&gt;0,'شارژ آذر 1404'!I13,0)</f>
-        <v>489000.37789661321</v>
+        <v>300000.37789661321</v>
       </c>
       <c r="H13" s="31">
         <f>IF('شارژ آذر 1404'!I13&lt;0,-'شارژ آذر 1404'!I13,0)</f>
@@ -45871,11 +45873,11 @@
       </c>
       <c r="I13" s="32">
         <f t="shared" si="1"/>
-        <v>789000.37789661321</v>
+        <v>600000.37789661321</v>
       </c>
       <c r="J13" s="41">
         <f t="shared" si="2"/>
-        <v>789000.37789661321</v>
+        <v>600000.37789661321</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="23"/>
@@ -46246,11 +46248,11 @@
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>16059400.488413548</v>
+        <v>15870400.488413548</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>16133400.732620321</v>
+        <v>15944400.732620321</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -46804,7 +46806,7 @@
       </c>
       <c r="C12" s="11">
         <f>'شارژ دی 1404'!J13</f>
-        <v>789000.37789661321</v>
+        <v>600000.37789661321</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -47574,7 +47576,7 @@
       </c>
       <c r="G13" s="33">
         <f>IF('شارژ دی 1404'!I13&gt;0,'شارژ دی 1404'!I13,0)</f>
-        <v>789000.37789661321</v>
+        <v>600000.37789661321</v>
       </c>
       <c r="H13" s="31">
         <f>IF('شارژ دی 1404'!I13&lt;0,-'شارژ دی 1404'!I13,0)</f>
@@ -47582,11 +47584,11 @@
       </c>
       <c r="I13" s="32">
         <f t="shared" si="1"/>
-        <v>1089000.3778966132</v>
+        <v>900000.37789661321</v>
       </c>
       <c r="J13" s="41">
         <f t="shared" si="2"/>
-        <v>1089000.3778966132</v>
+        <v>900000.37789661321</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="23"/>
@@ -47957,11 +47959,11 @@
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>20559400.488413543</v>
+        <v>20370400.488413543</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>20633400.732620317</v>
+        <v>20444400.732620317</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -48515,7 +48517,7 @@
       </c>
       <c r="C12" s="11">
         <f>'شارژ بهمن 1404'!J13</f>
-        <v>1089000.3778966132</v>
+        <v>900000.37789661321</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -49285,7 +49287,7 @@
       </c>
       <c r="G13" s="33">
         <f>IF('شارژ بهمن 1404'!I13&gt;0,'شارژ بهمن 1404'!I13,0)</f>
-        <v>1089000.3778966132</v>
+        <v>900000.37789661321</v>
       </c>
       <c r="H13" s="31">
         <f>IF('شارژ بهمن 1404'!I13&lt;0,-'شارژ بهمن 1404'!I13,0)</f>
@@ -49293,11 +49295,11 @@
       </c>
       <c r="I13" s="32">
         <f t="shared" si="1"/>
-        <v>1389000.3778966132</v>
+        <v>1200000.3778966132</v>
       </c>
       <c r="J13" s="41">
         <f t="shared" si="2"/>
-        <v>1389000.3778966132</v>
+        <v>1200000.3778966132</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="23"/>
@@ -49668,11 +49670,11 @@
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>25059400.488413546</v>
+        <v>24870400.488413546</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>25133400.732620317</v>
+        <v>24944400.732620317</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -50677,7 +50679,7 @@
       </c>
       <c r="C12" s="11">
         <f>'شارژ اسفند 1404'!J13</f>
-        <v>1389000.3778966132</v>
+        <v>1200000.3778966132</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/اكسل ساختمان آرايه1..xlsx
+++ b/اكسل ساختمان آرايه1..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11640" tabRatio="769" firstSheet="47" activeTab="50"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11640" tabRatio="769" firstSheet="48" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="شارژ مهر 1402" sheetId="146" r:id="rId1"/>
@@ -41935,8 +41935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView rightToLeft="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -42311,7 +42311,9 @@
         <f>'شارژ مهر 1404'!D10</f>
         <v>300000</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="32">
+        <v>340000</v>
+      </c>
       <c r="F10" s="32">
         <f t="shared" si="0"/>
         <v>40000</v>
@@ -42326,11 +42328,11 @@
       </c>
       <c r="I10" s="32">
         <f t="shared" si="1"/>
-        <v>339999.75579322642</v>
+        <v>-0.24420677361194976</v>
       </c>
       <c r="J10" s="41">
         <f t="shared" si="2"/>
-        <v>339999.75579322642</v>
+        <v>0</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="23"/>
@@ -42565,7 +42567,9 @@
         <f>'شارژ مهر 1404'!D16</f>
         <v>300000</v>
       </c>
-      <c r="E16" s="32"/>
+      <c r="E16" s="32">
+        <v>2000000</v>
+      </c>
       <c r="F16" s="32">
         <f t="shared" si="0"/>
         <v>60000</v>
@@ -42580,11 +42584,11 @@
       </c>
       <c r="I16" s="32">
         <f t="shared" si="1"/>
-        <v>1892000.1336898396</v>
+        <v>-107999.86631016037</v>
       </c>
       <c r="J16" s="41">
         <f t="shared" si="2"/>
-        <v>1892000.1336898396</v>
+        <v>0</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="23"/>
@@ -42649,7 +42653,9 @@
         <f>'شارژ مهر 1404'!D18</f>
         <v>300000</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="32">
+        <v>320000</v>
+      </c>
       <c r="F18" s="32">
         <f t="shared" si="0"/>
         <v>20000</v>
@@ -42664,11 +42670,11 @@
       </c>
       <c r="I18" s="32">
         <f t="shared" si="1"/>
-        <v>320000.37789661321</v>
+        <v>0.37789661319220613</v>
       </c>
       <c r="J18" s="41">
         <f t="shared" si="2"/>
-        <v>320000.37789661321</v>
+        <v>0.37789661319220613</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="23"/>
@@ -42815,7 +42821,7 @@
       </c>
       <c r="E22" s="29">
         <f>SUM(E4:E21)</f>
-        <v>1228600</v>
+        <v>3888600</v>
       </c>
       <c r="F22" s="62">
         <f>SUM(F4:F21)</f>
@@ -42828,11 +42834,11 @@
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>6870400.4884135481</v>
+        <v>4210400.4884135481</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>6944400.7326203212</v>
+        <v>4392400.8431372559</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -43238,8 +43244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -43350,7 +43356,7 @@
       </c>
       <c r="C9" s="11">
         <f>'شارژ آبان 1404'!J10</f>
-        <v>339999.75579322642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -43422,7 +43428,7 @@
       </c>
       <c r="C15" s="11">
         <f>'شارژ آبان 1404'!J16</f>
-        <v>1892000.1336898396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -43446,7 +43452,7 @@
       </c>
       <c r="C17" s="11">
         <f>'شارژ آبان 1404'!J18</f>
-        <v>320000.37789661321</v>
+        <v>0.37789661319220613</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -43654,7 +43660,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -44029,19 +44035,19 @@
       </c>
       <c r="G10" s="33">
         <f>IF('شارژ آبان 1404'!I10&gt;0,'شارژ آبان 1404'!I10,0)</f>
-        <v>339999.75579322642</v>
+        <v>0</v>
       </c>
       <c r="H10" s="31">
         <f>IF('شارژ آبان 1404'!I10&lt;0,-'شارژ آبان 1404'!I10,0)</f>
-        <v>0</v>
+        <v>0.24420677361194976</v>
       </c>
       <c r="I10" s="32">
         <f t="shared" si="1"/>
-        <v>639999.75579322642</v>
+        <v>299999.75579322642</v>
       </c>
       <c r="J10" s="41">
         <f t="shared" si="2"/>
-        <v>639999.75579322642</v>
+        <v>299999.75579322642</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="23"/>
@@ -44281,19 +44287,19 @@
       </c>
       <c r="G16" s="33">
         <f>IF('شارژ آبان 1404'!I16&gt;0,'شارژ آبان 1404'!I16,0)</f>
-        <v>1892000.1336898396</v>
+        <v>0</v>
       </c>
       <c r="H16" s="31">
         <f>IF('شارژ آبان 1404'!I16&lt;0,-'شارژ آبان 1404'!I16,0)</f>
-        <v>0</v>
+        <v>107999.86631016037</v>
       </c>
       <c r="I16" s="32">
         <f t="shared" si="1"/>
-        <v>2192000.1336898394</v>
+        <v>192000.13368983963</v>
       </c>
       <c r="J16" s="41">
         <f t="shared" si="2"/>
-        <v>2192000.1336898394</v>
+        <v>192000.13368983963</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="23"/>
@@ -44365,7 +44371,7 @@
       </c>
       <c r="G18" s="33">
         <f>IF('شارژ آبان 1404'!I18&gt;0,'شارژ آبان 1404'!I18,0)</f>
-        <v>320000.37789661321</v>
+        <v>0.37789661319220613</v>
       </c>
       <c r="H18" s="31">
         <f>IF('شارژ آبان 1404'!I18&lt;0,-'شارژ آبان 1404'!I18,0)</f>
@@ -44373,11 +44379,11 @@
       </c>
       <c r="I18" s="32">
         <f t="shared" si="1"/>
-        <v>620000.37789661321</v>
+        <v>300000.37789661321</v>
       </c>
       <c r="J18" s="41">
         <f t="shared" si="2"/>
-        <v>620000.37789661321</v>
+        <v>300000.37789661321</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="23"/>
@@ -44533,15 +44539,15 @@
       <c r="G22" s="30"/>
       <c r="H22" s="29">
         <f>SUM(H4:H21)</f>
-        <v>74000.244206773612</v>
+        <v>182000.3547237076</v>
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>11370400.488413548</v>
+        <v>8710400.4884135481</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>11444400.732620321</v>
+        <v>8784400.7326203212</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -45059,7 +45065,7 @@
       </c>
       <c r="C9" s="11">
         <f>'شارژ آذر 1404'!J10</f>
-        <v>639999.75579322642</v>
+        <v>299999.75579322642</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -45131,7 +45137,7 @@
       </c>
       <c r="C15" s="11">
         <f>'شارژ آذر 1404'!J16</f>
-        <v>2192000.1336898394</v>
+        <v>192000.13368983963</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -45155,7 +45161,7 @@
       </c>
       <c r="C17" s="11">
         <f>'شارژ آذر 1404'!J18</f>
-        <v>620000.37789661321</v>
+        <v>300000.37789661321</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -45739,7 +45745,7 @@
       </c>
       <c r="G10" s="33">
         <f>IF('شارژ آذر 1404'!I10&gt;0,'شارژ آذر 1404'!I10,0)</f>
-        <v>639999.75579322642</v>
+        <v>299999.75579322642</v>
       </c>
       <c r="H10" s="31">
         <f>IF('شارژ آذر 1404'!I10&lt;0,-'شارژ آذر 1404'!I10,0)</f>
@@ -45747,11 +45753,11 @@
       </c>
       <c r="I10" s="32">
         <f t="shared" si="1"/>
-        <v>939999.75579322642</v>
+        <v>599999.75579322642</v>
       </c>
       <c r="J10" s="41">
         <f t="shared" si="2"/>
-        <v>939999.75579322642</v>
+        <v>599999.75579322642</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="23"/>
@@ -45991,7 +45997,7 @@
       </c>
       <c r="G16" s="33">
         <f>IF('شارژ آذر 1404'!I16&gt;0,'شارژ آذر 1404'!I16,0)</f>
-        <v>2192000.1336898394</v>
+        <v>192000.13368983963</v>
       </c>
       <c r="H16" s="31">
         <f>IF('شارژ آذر 1404'!I16&lt;0,-'شارژ آذر 1404'!I16,0)</f>
@@ -45999,11 +46005,11 @@
       </c>
       <c r="I16" s="32">
         <f t="shared" si="1"/>
-        <v>2492000.1336898394</v>
+        <v>492000.13368983963</v>
       </c>
       <c r="J16" s="41">
         <f t="shared" si="2"/>
-        <v>2492000.1336898394</v>
+        <v>492000.13368983963</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="23"/>
@@ -46075,7 +46081,7 @@
       </c>
       <c r="G18" s="33">
         <f>IF('شارژ آذر 1404'!I18&gt;0,'شارژ آذر 1404'!I18,0)</f>
-        <v>620000.37789661321</v>
+        <v>300000.37789661321</v>
       </c>
       <c r="H18" s="31">
         <f>IF('شارژ آذر 1404'!I18&lt;0,-'شارژ آذر 1404'!I18,0)</f>
@@ -46083,11 +46089,11 @@
       </c>
       <c r="I18" s="32">
         <f t="shared" si="1"/>
-        <v>920000.37789661321</v>
+        <v>600000.37789661321</v>
       </c>
       <c r="J18" s="41">
         <f t="shared" si="2"/>
-        <v>920000.37789661321</v>
+        <v>600000.37789661321</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="23"/>
@@ -46248,11 +46254,11 @@
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>15870400.488413548</v>
+        <v>13210400.488413548</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>15944400.732620321</v>
+        <v>13284400.732620321</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -46770,7 +46776,7 @@
       </c>
       <c r="C9" s="11">
         <f>'شارژ دی 1404'!J10</f>
-        <v>939999.75579322642</v>
+        <v>599999.75579322642</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -46842,7 +46848,7 @@
       </c>
       <c r="C15" s="11">
         <f>'شارژ دی 1404'!J16</f>
-        <v>2492000.1336898394</v>
+        <v>492000.13368983963</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -46866,7 +46872,7 @@
       </c>
       <c r="C17" s="11">
         <f>'شارژ دی 1404'!J18</f>
-        <v>920000.37789661321</v>
+        <v>600000.37789661321</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -47450,7 +47456,7 @@
       </c>
       <c r="G10" s="33">
         <f>IF('شارژ دی 1404'!I10&gt;0,'شارژ دی 1404'!I10,0)</f>
-        <v>939999.75579322642</v>
+        <v>599999.75579322642</v>
       </c>
       <c r="H10" s="31">
         <f>IF('شارژ دی 1404'!I10&lt;0,-'شارژ دی 1404'!I10,0)</f>
@@ -47458,11 +47464,11 @@
       </c>
       <c r="I10" s="32">
         <f t="shared" si="1"/>
-        <v>1239999.7557932264</v>
+        <v>899999.75579322642</v>
       </c>
       <c r="J10" s="41">
         <f t="shared" si="2"/>
-        <v>1239999.7557932264</v>
+        <v>899999.75579322642</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="23"/>
@@ -47702,7 +47708,7 @@
       </c>
       <c r="G16" s="33">
         <f>IF('شارژ دی 1404'!I16&gt;0,'شارژ دی 1404'!I16,0)</f>
-        <v>2492000.1336898394</v>
+        <v>492000.13368983963</v>
       </c>
       <c r="H16" s="31">
         <f>IF('شارژ دی 1404'!I16&lt;0,-'شارژ دی 1404'!I16,0)</f>
@@ -47710,11 +47716,11 @@
       </c>
       <c r="I16" s="32">
         <f t="shared" si="1"/>
-        <v>2792000.1336898394</v>
+        <v>792000.13368983963</v>
       </c>
       <c r="J16" s="41">
         <f t="shared" si="2"/>
-        <v>2792000.1336898394</v>
+        <v>792000.13368983963</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="23"/>
@@ -47786,7 +47792,7 @@
       </c>
       <c r="G18" s="33">
         <f>IF('شارژ دی 1404'!I18&gt;0,'شارژ دی 1404'!I18,0)</f>
-        <v>920000.37789661321</v>
+        <v>600000.37789661321</v>
       </c>
       <c r="H18" s="31">
         <f>IF('شارژ دی 1404'!I18&lt;0,-'شارژ دی 1404'!I18,0)</f>
@@ -47794,11 +47800,11 @@
       </c>
       <c r="I18" s="32">
         <f t="shared" si="1"/>
-        <v>1220000.3778966132</v>
+        <v>900000.37789661321</v>
       </c>
       <c r="J18" s="41">
         <f t="shared" si="2"/>
-        <v>1220000.3778966132</v>
+        <v>900000.37789661321</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="23"/>
@@ -47959,11 +47965,11 @@
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>20370400.488413543</v>
+        <v>17710400.488413543</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>20444400.732620317</v>
+        <v>17784400.732620317</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -48481,7 +48487,7 @@
       </c>
       <c r="C9" s="11">
         <f>'شارژ بهمن 1404'!J10</f>
-        <v>1239999.7557932264</v>
+        <v>899999.75579322642</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -48553,7 +48559,7 @@
       </c>
       <c r="C15" s="11">
         <f>'شارژ بهمن 1404'!J16</f>
-        <v>2792000.1336898394</v>
+        <v>792000.13368983963</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -48577,7 +48583,7 @@
       </c>
       <c r="C17" s="11">
         <f>'شارژ بهمن 1404'!J18</f>
-        <v>1220000.3778966132</v>
+        <v>900000.37789661321</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -49161,7 +49167,7 @@
       </c>
       <c r="G10" s="33">
         <f>IF('شارژ بهمن 1404'!I10&gt;0,'شارژ بهمن 1404'!I10,0)</f>
-        <v>1239999.7557932264</v>
+        <v>899999.75579322642</v>
       </c>
       <c r="H10" s="31">
         <f>IF('شارژ بهمن 1404'!I10&lt;0,-'شارژ بهمن 1404'!I10,0)</f>
@@ -49169,11 +49175,11 @@
       </c>
       <c r="I10" s="32">
         <f t="shared" si="1"/>
-        <v>1539999.7557932264</v>
+        <v>1199999.7557932264</v>
       </c>
       <c r="J10" s="41">
         <f t="shared" si="2"/>
-        <v>1539999.7557932264</v>
+        <v>1199999.7557932264</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="23"/>
@@ -49413,7 +49419,7 @@
       </c>
       <c r="G16" s="33">
         <f>IF('شارژ بهمن 1404'!I16&gt;0,'شارژ بهمن 1404'!I16,0)</f>
-        <v>2792000.1336898394</v>
+        <v>792000.13368983963</v>
       </c>
       <c r="H16" s="31">
         <f>IF('شارژ بهمن 1404'!I16&lt;0,-'شارژ بهمن 1404'!I16,0)</f>
@@ -49421,11 +49427,11 @@
       </c>
       <c r="I16" s="32">
         <f t="shared" si="1"/>
-        <v>3092000.1336898394</v>
+        <v>1092000.1336898396</v>
       </c>
       <c r="J16" s="41">
         <f t="shared" si="2"/>
-        <v>3092000.1336898394</v>
+        <v>1092000.1336898396</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="23"/>
@@ -49497,7 +49503,7 @@
       </c>
       <c r="G18" s="33">
         <f>IF('شارژ بهمن 1404'!I18&gt;0,'شارژ بهمن 1404'!I18,0)</f>
-        <v>1220000.3778966132</v>
+        <v>900000.37789661321</v>
       </c>
       <c r="H18" s="31">
         <f>IF('شارژ بهمن 1404'!I18&lt;0,-'شارژ بهمن 1404'!I18,0)</f>
@@ -49505,11 +49511,11 @@
       </c>
       <c r="I18" s="32">
         <f t="shared" si="1"/>
-        <v>1520000.3778966132</v>
+        <v>1200000.3778966132</v>
       </c>
       <c r="J18" s="41">
         <f t="shared" si="2"/>
-        <v>1520000.3778966132</v>
+        <v>1200000.3778966132</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="23"/>
@@ -49670,11 +49676,11 @@
       </c>
       <c r="I22" s="29">
         <f>SUM(I4:I21)</f>
-        <v>24870400.488413546</v>
+        <v>22210400.488413543</v>
       </c>
       <c r="J22" s="29">
         <f>SUM(J4:J21)</f>
-        <v>24944400.732620317</v>
+        <v>22284400.732620317</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="23"/>
@@ -50643,7 +50649,7 @@
       </c>
       <c r="C9" s="11">
         <f>'شارژ اسفند 1404'!J10</f>
-        <v>1539999.7557932264</v>
+        <v>1199999.7557932264</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -50715,7 +50721,7 @@
       </c>
       <c r="C15" s="11">
         <f>'شارژ اسفند 1404'!J16</f>
-        <v>3092000.1336898394</v>
+        <v>1092000.1336898396</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -50739,7 +50745,7 @@
       </c>
       <c r="C17" s="11">
         <f>'شارژ اسفند 1404'!J18</f>
-        <v>1520000.3778966132</v>
+        <v>1200000.3778966132</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
